--- a/applications/Brazil/Curitiba_validation.xlsx
+++ b/applications/Brazil/Curitiba_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="B3">
-        <v>1086</v>
+        <v>1348</v>
       </c>
       <c r="C3">
-        <v>1824</v>
+        <v>2270</v>
       </c>
       <c r="D3">
-        <v>6061</v>
+        <v>7759</v>
       </c>
       <c r="I3">
         <v>39</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L3">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
